--- a/AutoBM/Table/Item.xlsx
+++ b/AutoBM/Table/Item.xlsx
@@ -8,24 +8,51 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora.kim\Desktop\AutoBM\AutoBM\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB506A0A-6EBF-408D-9DCD-568E2C5E1203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47830FA1-2CA0-4E9F-A399-A57A7739EBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30540" yWindow="1395" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={AAEA1592-7626-415A-96C4-E3DE19264C37}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{AAEA1592-7626-415A-96C4-E3DE19264C37}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    아이템 코드</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <r>
       <rPr>
@@ -44,7 +71,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -63,7 +90,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -82,7 +109,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -101,7 +128,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>(</t>
+      <t xml:space="preserve"> (</t>
     </r>
     <r>
       <rPr>
@@ -133,7 +160,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -152,7 +179,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -171,7 +198,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -200,7 +227,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>(</t>
+      <t xml:space="preserve"> (</t>
     </r>
     <r>
       <rPr>
@@ -242,7 +269,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -261,7 +288,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -280,7 +307,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +367,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -369,7 +396,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>(</t>
+      <t xml:space="preserve"> (</t>
     </r>
     <r>
       <rPr>
@@ -401,7 +428,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -433,13 +460,20 @@
       <t>미사용)</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(분류)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,16 +522,42 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -520,20 +580,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -544,6 +646,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -807,9 +913,17 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2020-09-28T12:14:04.74" personId="{00000000-0000-0000-0000-000000000000}" id="{AAEA1592-7626-415A-96C4-E3DE19264C37}">
+    <text>아이템 코드</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -817,9 +931,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -830,8 +944,11 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -845,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -859,7 +976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -873,7 +990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -889,7 +1006,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>